--- a/Assets/Misc/DAT_TO_SVG.xlsx
+++ b/Assets/Misc/DAT_TO_SVG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Asteroids\Assets\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C2F0EF-3886-4193-889B-2679959460EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525B847-932C-4100-8D13-E5961DF04328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="570" windowWidth="24900" windowHeight="13950" activeTab="1" xr2:uid="{8BDAA299-43E5-4936-91F4-AAEF69172EE4}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24900" windowHeight="13950" activeTab="1" xr2:uid="{8BDAA299-43E5-4936-91F4-AAEF69172EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Ship1</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>rock 7</t>
+  </si>
+  <si>
+    <t>carot</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>cube</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
         <v>-24</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E10" si="0">A3+48+5</f>
+        <f t="shared" ref="E3:E10" si="0">A3+48+5</f>
         <v>85</v>
       </c>
       <c r="F3">
@@ -1008,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3A2446-A330-44F3-8DBB-B8C532439262}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1807,7 @@
         <v>208</v>
       </c>
       <c r="C11">
-        <f>C2+100</f>
+        <f t="shared" ref="C11:C17" si="1">C2+100</f>
         <v>102</v>
       </c>
       <c r="D11">
@@ -1810,87 +1819,87 @@
         <v>114</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:AA11" si="1">F2+200</f>
+        <f t="shared" ref="F11" si="2">F2+200</f>
         <v>228</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:AA11" si="2">G2+100</f>
+        <f t="shared" ref="G11" si="3">G2+100</f>
         <v>122</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:AA11" si="3">H2+200</f>
+        <f t="shared" ref="H11" si="4">H2+200</f>
         <v>202</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:AA11" si="4">I2+100</f>
+        <f t="shared" ref="I11" si="5">I2+100</f>
         <v>133</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:AA11" si="5">J2+200</f>
+        <f t="shared" ref="J11" si="6">J2+200</f>
         <v>178</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:AA11" si="6">K2+100</f>
+        <f t="shared" ref="K11" si="7">K2+100</f>
         <v>128</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:AA11" si="7">L2+200</f>
+        <f t="shared" ref="L11" si="8">L2+200</f>
         <v>189</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:AA11" si="8">M2+100</f>
+        <f t="shared" ref="M11" si="9">M2+100</f>
         <v>114</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:AA11" si="9">N2+200</f>
+        <f t="shared" ref="N11" si="10">N2+200</f>
         <v>158</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:AA11" si="10">O2+100</f>
+        <f t="shared" ref="O11" si="11">O2+100</f>
         <v>108</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:AA11" si="11">P2+200</f>
+        <f t="shared" ref="P11" si="12">P2+200</f>
         <v>162</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:AA11" si="12">Q2+100</f>
+        <f t="shared" ref="Q11" si="13">Q2+100</f>
         <v>84</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11:AA11" si="13">R2+200</f>
+        <f t="shared" ref="R11" si="14">R2+200</f>
         <v>191</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:AA11" si="14">S2+100</f>
+        <f t="shared" ref="S11" si="15">S2+100</f>
         <v>65</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:AA11" si="15">T2+200</f>
+        <f t="shared" ref="T11" si="16">T2+200</f>
         <v>213</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="U11:AA11" si="16">U2+100</f>
+        <f t="shared" ref="U11" si="17">U2+100</f>
         <v>78</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:AA11" si="17">V2+200</f>
+        <f t="shared" ref="V11" si="18">V2+200</f>
         <v>222</v>
       </c>
       <c r="W11">
-        <f t="shared" ref="W11:AA11" si="18">W2+100</f>
+        <f t="shared" ref="W11" si="19">W2+100</f>
         <v>72</v>
       </c>
       <c r="X11">
-        <f t="shared" ref="X11:AA11" si="19">X2+200</f>
+        <f t="shared" ref="X11" si="20">X2+200</f>
         <v>235</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11:AA11" si="20">Y2+100</f>
+        <f t="shared" ref="Y11" si="21">Y2+100</f>
         <v>91</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11:AA11" si="21">Z2+200</f>
+        <f t="shared" ref="Z11" si="22">Z2+200</f>
         <v>208</v>
       </c>
       <c r="AA11">
@@ -1907,99 +1916,99 @@
         <v>307</v>
       </c>
       <c r="C12">
-        <f>C3+100</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:AA12" si="22">D3+300</f>
+        <f t="shared" ref="D12" si="23">D3+300</f>
         <v>327</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:AA12" si="23">E3+100</f>
+        <f t="shared" ref="E12" si="24">E3+100</f>
         <v>120</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:AA12" si="24">F3+300</f>
+        <f t="shared" ref="F12" si="25">F3+300</f>
         <v>323</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:AA12" si="25">G3+100</f>
+        <f t="shared" ref="G12" si="26">G3+100</f>
         <v>127</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:AA12" si="26">H3+300</f>
+        <f t="shared" ref="H12" si="27">H3+300</f>
         <v>295</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:AA12" si="27">I3+100</f>
+        <f t="shared" ref="I12" si="28">I3+100</f>
         <v>133</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:AA12" si="28">J3+300</f>
+        <f t="shared" ref="J12" si="29">J3+300</f>
         <v>273</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:AA12" si="29">K3+100</f>
+        <f t="shared" ref="K12" si="30">K3+100</f>
         <v>123</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:AA12" si="30">L3+300</f>
+        <f t="shared" ref="L12" si="31">L3+300</f>
         <v>286</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:AA12" si="31">M3+100</f>
+        <f t="shared" ref="M12" si="32">M3+100</f>
         <v>112</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:AA12" si="32">N3+300</f>
+        <f t="shared" ref="N12" si="33">N3+300</f>
         <v>257</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:AA12" si="33">O3+100</f>
+        <f t="shared" ref="O12" si="34">O3+100</f>
         <v>99</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:AA12" si="34">P3+300</f>
+        <f t="shared" ref="P12" si="35">P3+300</f>
         <v>266</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:AA12" si="35">Q3+100</f>
+        <f t="shared" ref="Q12" si="36">Q3+100</f>
         <v>77</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:AA12" si="36">R3+300</f>
+        <f t="shared" ref="R12" si="37">R3+300</f>
         <v>297</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:AA12" si="37">S3+100</f>
+        <f t="shared" ref="S12" si="38">S3+100</f>
         <v>64</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:AA12" si="38">T3+300</f>
+        <f t="shared" ref="T12" si="39">T3+300</f>
         <v>317</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12:AA12" si="39">U3+100</f>
+        <f t="shared" ref="U12" si="40">U3+100</f>
         <v>81</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12:AA12" si="40">V3+300</f>
+        <f t="shared" ref="V12" si="41">V3+300</f>
         <v>327</v>
       </c>
       <c r="W12">
-        <f t="shared" ref="W12:AA12" si="41">W3+100</f>
+        <f t="shared" ref="W12" si="42">W3+100</f>
         <v>77</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:AA12" si="42">X3+300</f>
+        <f t="shared" ref="X12" si="43">X3+300</f>
         <v>336</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12:AA12" si="43">Y3+100</f>
+        <f t="shared" ref="Y12" si="44">Y3+100</f>
         <v>97</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:AA12" si="44">Z3+300</f>
+        <f t="shared" ref="Z12" si="45">Z3+300</f>
         <v>307</v>
       </c>
       <c r="AA12">
@@ -2016,99 +2025,99 @@
         <v>407</v>
       </c>
       <c r="C13">
-        <f>C4+100</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:AA13" si="45">D4+400</f>
+        <f t="shared" ref="D13" si="46">D4+400</f>
         <v>422</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:AA13" si="46">E4+100</f>
+        <f t="shared" ref="E13" si="47">E4+100</f>
         <v>124</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:AA13" si="47">F4+400</f>
+        <f t="shared" ref="F13" si="48">F4+400</f>
         <v>418</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:AA13" si="48">G4+100</f>
+        <f t="shared" ref="G13" si="49">G4+100</f>
         <v>131</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:AA13" si="49">H4+400</f>
+        <f t="shared" ref="H13" si="50">H4+400</f>
         <v>389</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:AA13" si="50">I4+100</f>
+        <f t="shared" ref="I13" si="51">I4+100</f>
         <v>131</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:AA13" si="51">J4+400</f>
+        <f t="shared" ref="J13" si="52">J4+400</f>
         <v>369</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:AA13" si="52">K4+100</f>
+        <f t="shared" ref="K13" si="53">K4+100</f>
         <v>118</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:AA13" si="53">L4+400</f>
+        <f t="shared" ref="L13" si="54">L4+400</f>
         <v>384</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:AA13" si="54">M4+100</f>
+        <f t="shared" ref="M13" si="55">M4+100</f>
         <v>109</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:AA13" si="55">N4+400</f>
+        <f t="shared" ref="N13" si="56">N4+400</f>
         <v>358</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:AA13" si="56">O4+100</f>
+        <f t="shared" ref="O13" si="57">O4+100</f>
         <v>91</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:AA13" si="57">P4+400</f>
+        <f t="shared" ref="P13" si="58">P4+400</f>
         <v>371</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:AA13" si="58">Q4+100</f>
+        <f t="shared" ref="Q13" si="59">Q4+100</f>
         <v>71</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:AA13" si="59">R4+400</f>
+        <f t="shared" ref="R13" si="60">R4+400</f>
         <v>404</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:AA13" si="60">S4+100</f>
+        <f t="shared" ref="S13" si="61">S4+100</f>
         <v>65</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:AA13" si="61">T4+400</f>
+        <f t="shared" ref="T13" si="62">T4+400</f>
         <v>420</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:AA13" si="62">U4+100</f>
+        <f t="shared" ref="U13" si="63">U4+100</f>
         <v>84</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:AA13" si="63">V4+400</f>
+        <f t="shared" ref="V13" si="64">V4+400</f>
         <v>431</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:AA13" si="64">W4+100</f>
+        <f t="shared" ref="W13" si="65">W4+100</f>
         <v>82</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:AA13" si="65">X4+400</f>
+        <f t="shared" ref="X13" si="66">X4+400</f>
         <v>435</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13:AA13" si="66">Y4+100</f>
+        <f t="shared" ref="Y13" si="67">Y4+100</f>
         <v>104</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13:AA13" si="67">Z4+400</f>
+        <f t="shared" ref="Z13" si="68">Z4+400</f>
         <v>407</v>
       </c>
       <c r="AA13">
@@ -2125,99 +2134,99 @@
         <v>506</v>
       </c>
       <c r="C14">
-        <f>C5+100</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:AA14" si="68">D5+500</f>
+        <f t="shared" ref="D14" si="69">D5+500</f>
         <v>517</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:AA14" si="69">E5+100</f>
+        <f t="shared" ref="E14" si="70">E5+100</f>
         <v>128</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:AA14" si="70">F5+500</f>
+        <f t="shared" ref="F14" si="71">F5+500</f>
         <v>511</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:AA14" si="71">G5+100</f>
+        <f t="shared" ref="G14" si="72">G5+100</f>
         <v>134</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:AA14" si="72">H5+500</f>
+        <f t="shared" ref="H14" si="73">H5+500</f>
         <v>483</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:AA14" si="73">I5+100</f>
+        <f t="shared" ref="I14" si="74">I5+100</f>
         <v>128</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:AA14" si="74">J5+500</f>
+        <f t="shared" ref="J14" si="75">J5+500</f>
         <v>466</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:AA14" si="75">K5+100</f>
+        <f t="shared" ref="K14" si="76">K5+100</f>
         <v>111</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:AA14" si="76">L5+500</f>
+        <f t="shared" ref="L14" si="77">L5+500</f>
         <v>483</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:AA14" si="77">M5+100</f>
+        <f t="shared" ref="M14" si="78">M5+100</f>
         <v>106</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:AA14" si="78">N5+500</f>
+        <f t="shared" ref="N14" si="79">N5+500</f>
         <v>460</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:AA14" si="79">O5+100</f>
+        <f t="shared" ref="O14" si="80">O5+100</f>
         <v>83</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:AA14" si="80">P5+500</f>
+        <f t="shared" ref="P14" si="81">P5+500</f>
         <v>477</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:AA14" si="81">Q5+100</f>
+        <f t="shared" ref="Q14" si="82">Q5+100</f>
         <v>66</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:AA14" si="82">R5+500</f>
+        <f t="shared" ref="R14" si="83">R5+500</f>
         <v>511</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:AA14" si="83">S5+100</f>
+        <f t="shared" ref="S14" si="84">S5+100</f>
         <v>66</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:AA14" si="84">T5+500</f>
+        <f t="shared" ref="T14" si="85">T5+500</f>
         <v>523</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14:AA14" si="85">U5+100</f>
+        <f t="shared" ref="U14" si="86">U5+100</f>
         <v>89</v>
       </c>
       <c r="V14">
-        <f t="shared" ref="V14:AA14" si="86">V5+500</f>
+        <f t="shared" ref="V14" si="87">V5+500</f>
         <v>534</v>
       </c>
       <c r="W14">
-        <f t="shared" ref="W14:AA14" si="87">W5+100</f>
+        <f t="shared" ref="W14" si="88">W5+100</f>
         <v>89</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:AA14" si="88">X5+500</f>
+        <f t="shared" ref="X14" si="89">X5+500</f>
         <v>534</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:AA14" si="89">Y5+100</f>
+        <f t="shared" ref="Y14" si="90">Y5+100</f>
         <v>111</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14:AA14" si="90">Z5+500</f>
+        <f t="shared" ref="Z14" si="91">Z5+500</f>
         <v>506</v>
       </c>
       <c r="AA14">
@@ -2234,7 +2243,7 @@
         <v>604</v>
       </c>
       <c r="C15">
-        <f>C6+100</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="D15">
@@ -2254,83 +2263,83 @@
         <v>135</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:AA15" si="91">H6+600</f>
+        <f t="shared" ref="H15" si="92">H6+600</f>
         <v>578</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:AA15" si="92">I6+100</f>
+        <f t="shared" ref="I15" si="93">I6+100</f>
         <v>124</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:AA15" si="93">J6+600</f>
+        <f t="shared" ref="J15" si="94">J6+600</f>
         <v>565</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:AA15" si="94">K6+100</f>
+        <f t="shared" ref="K15" si="95">K6+100</f>
         <v>104</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:AA15" si="95">L6+600</f>
+        <f t="shared" ref="L15" si="96">L6+600</f>
         <v>582</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:AA15" si="96">M6+100</f>
+        <f t="shared" ref="M15" si="97">M6+100</f>
         <v>102</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:AA15" si="97">N6+600</f>
+        <f t="shared" ref="N15" si="98">N6+600</f>
         <v>564</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:AA15" si="98">O6+100</f>
+        <f t="shared" ref="O15" si="99">O6+100</f>
         <v>76</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:AA15" si="99">P6+600</f>
+        <f t="shared" ref="P15" si="100">P6+600</f>
         <v>584</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15:AA15" si="100">Q6+100</f>
+        <f t="shared" ref="Q15" si="101">Q6+100</f>
         <v>62</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:AA15" si="101">R6+600</f>
+        <f t="shared" ref="R15" si="102">R6+600</f>
         <v>618</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:AA15" si="102">S6+100</f>
+        <f t="shared" ref="S15" si="103">S6+100</f>
         <v>69</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:AA15" si="103">T6+600</f>
+        <f t="shared" ref="T15" si="104">T6+600</f>
         <v>624</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15:AA15" si="104">U6+100</f>
+        <f t="shared" ref="U15" si="105">U6+100</f>
         <v>93</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15:AA15" si="105">V6+600</f>
+        <f t="shared" ref="V15" si="106">V6+600</f>
         <v>635</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:AA15" si="106">W6+100</f>
+        <f t="shared" ref="W15" si="107">W6+100</f>
         <v>96</v>
       </c>
       <c r="X15">
-        <f t="shared" ref="X15:AA15" si="107">X6+600</f>
+        <f t="shared" ref="X15" si="108">X6+600</f>
         <v>631</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15:AA15" si="108">Y6+100</f>
+        <f t="shared" ref="Y15" si="109">Y6+100</f>
         <v>118</v>
       </c>
       <c r="Z15">
-        <f t="shared" ref="Z15:AA15" si="109">Z6+600</f>
+        <f t="shared" ref="Z15" si="110">Z6+600</f>
         <v>604</v>
       </c>
       <c r="AA15">
-        <f t="shared" ref="AA15:AA17" si="110">AA6+100</f>
+        <f t="shared" ref="AA15:AA17" si="111">AA6+100</f>
         <v>107</v>
       </c>
     </row>
@@ -2343,7 +2352,7 @@
         <v>703</v>
       </c>
       <c r="C16">
-        <f>C7+100</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="D16">
@@ -2363,83 +2372,83 @@
         <v>136</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:AA16" si="111">H7+700</f>
+        <f t="shared" ref="H16" si="112">H7+700</f>
         <v>673</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:AA16" si="112">I7+100</f>
+        <f t="shared" ref="I16" si="113">I7+100</f>
         <v>120</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:AA16" si="113">J7+700</f>
+        <f t="shared" ref="J16" si="114">J7+700</f>
         <v>664</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:AA16" si="114">K7+100</f>
+        <f t="shared" ref="K16" si="115">K7+100</f>
         <v>97</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:AA16" si="115">L7+700</f>
+        <f t="shared" ref="L16" si="116">L7+700</f>
         <v>682</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:AA16" si="116">M7+100</f>
+        <f t="shared" ref="M16" si="117">M7+100</f>
         <v>99</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:AA16" si="117">N7+700</f>
+        <f t="shared" ref="N16" si="118">N7+700</f>
         <v>670</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:AA16" si="118">O7+100</f>
+        <f t="shared" ref="O16" si="119">O7+100</f>
         <v>69</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:AA16" si="119">P7+700</f>
+        <f t="shared" ref="P16" si="120">P7+700</f>
         <v>692</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:AA16" si="120">Q7+100</f>
+        <f t="shared" ref="Q16" si="121">Q7+100</f>
         <v>60</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:AA16" si="121">R7+700</f>
+        <f t="shared" ref="R16" si="122">R7+700</f>
         <v>723</v>
       </c>
       <c r="S16">
-        <f t="shared" ref="S16:AA16" si="122">S7+100</f>
+        <f t="shared" ref="S16" si="123">S7+100</f>
         <v>73</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:AA16" si="123">T7+700</f>
+        <f t="shared" ref="T16" si="124">T7+700</f>
         <v>725</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:AA16" si="124">U7+100</f>
+        <f t="shared" ref="U16" si="125">U7+100</f>
         <v>98</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:AA16" si="125">V7+700</f>
+        <f t="shared" ref="V16" si="126">V7+700</f>
         <v>736</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:AA16" si="126">W7+100</f>
+        <f t="shared" ref="W16" si="127">W7+100</f>
         <v>103</v>
       </c>
       <c r="X16">
-        <f t="shared" ref="X16:AA16" si="127">X7+700</f>
+        <f t="shared" ref="X16" si="128">X7+700</f>
         <v>727</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:AA16" si="128">Y7+100</f>
+        <f t="shared" ref="Y16" si="129">Y7+100</f>
         <v>123</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:AA16" si="129">Z7+700</f>
+        <f t="shared" ref="Z16" si="130">Z7+700</f>
         <v>703</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>107</v>
       </c>
     </row>
@@ -2452,7 +2461,7 @@
         <v>802</v>
       </c>
       <c r="C17">
-        <f>C8+100</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D17">
@@ -2472,83 +2481,83 @@
         <v>135</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:AA17" si="130">H8+800</f>
+        <f t="shared" ref="H17" si="131">H8+800</f>
         <v>770</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:AA17" si="131">I8+100</f>
+        <f t="shared" ref="I17" si="132">I8+100</f>
         <v>114</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:AA17" si="132">J8+800</f>
+        <f t="shared" ref="J17" si="133">J8+800</f>
         <v>765</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:AA17" si="133">K8+100</f>
+        <f t="shared" ref="K17" si="134">K8+100</f>
         <v>91</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:AA17" si="134">L8+800</f>
+        <f t="shared" ref="L17" si="135">L8+800</f>
         <v>783</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:AA17" si="135">M8+100</f>
+        <f t="shared" ref="M17" si="136">M8+100</f>
         <v>95</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:AA17" si="136">N8+800</f>
+        <f t="shared" ref="N17" si="137">N8+800</f>
         <v>777</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:AA17" si="137">O8+100</f>
+        <f t="shared" ref="O17" si="138">O8+100</f>
         <v>64</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:AA17" si="138">P8+800</f>
+        <f t="shared" ref="P17" si="139">P8+800</f>
         <v>800</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17:AA17" si="139">Q8+100</f>
+        <f t="shared" ref="Q17" si="140">Q8+100</f>
         <v>59</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:AA17" si="140">R8+800</f>
+        <f t="shared" ref="R17" si="141">R8+800</f>
         <v>828</v>
       </c>
       <c r="S17">
-        <f t="shared" ref="S17:AA17" si="141">S8+100</f>
+        <f t="shared" ref="S17" si="142">S8+100</f>
         <v>78</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:AA17" si="142">T8+800</f>
+        <f t="shared" ref="T17" si="143">T8+800</f>
         <v>825</v>
       </c>
       <c r="U17">
-        <f t="shared" ref="U17:AA17" si="143">U8+100</f>
+        <f t="shared" ref="U17" si="144">U8+100</f>
         <v>103</v>
       </c>
       <c r="V17">
-        <f t="shared" ref="V17:AA17" si="144">V8+800</f>
+        <f t="shared" ref="V17" si="145">V8+800</f>
         <v>835</v>
       </c>
       <c r="W17">
-        <f t="shared" ref="W17:AA17" si="145">W8+100</f>
+        <f t="shared" ref="W17" si="146">W8+100</f>
         <v>109</v>
       </c>
       <c r="X17">
-        <f t="shared" ref="X17:AA17" si="146">X8+800</f>
+        <f t="shared" ref="X17" si="147">X8+800</f>
         <v>822</v>
       </c>
       <c r="Y17">
-        <f t="shared" ref="Y17:AA17" si="147">Y8+100</f>
+        <f t="shared" ref="Y17" si="148">Y8+100</f>
         <v>128</v>
       </c>
       <c r="Z17">
-        <f t="shared" ref="Z17:AA17" si="148">Z8+800</f>
+        <f t="shared" ref="Z17" si="149">Z8+800</f>
         <v>802</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>108</v>
       </c>
     </row>
@@ -3096,67 +3105,67 @@
         <v>168</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:S30" si="149">D20+100</f>
+        <f t="shared" ref="D30" si="150">D20+100</f>
         <v>132</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:S30" si="150">E20+200</f>
+        <f t="shared" ref="E30" si="151">E20+200</f>
         <v>176</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:S30" si="151">F20+100</f>
+        <f t="shared" ref="F30" si="152">F20+100</f>
         <v>148</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:S30" si="152">G20+200</f>
+        <f t="shared" ref="G30" si="153">G20+200</f>
         <v>192</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:S30" si="153">H20+100</f>
+        <f t="shared" ref="H30" si="154">H20+100</f>
         <v>100</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:S30" si="154">I20+200</f>
+        <f t="shared" ref="I30" si="155">I20+200</f>
         <v>216</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:S30" si="155">J20+100</f>
+        <f t="shared" ref="J30" si="156">J20+100</f>
         <v>52</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:S30" si="156">K20+200</f>
+        <f t="shared" ref="K30" si="157">K20+200</f>
         <v>192</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:S30" si="157">L20+100</f>
+        <f t="shared" ref="L30" si="158">L20+100</f>
         <v>68</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:S30" si="158">M20+200</f>
+        <f t="shared" ref="M30" si="159">M20+200</f>
         <v>176</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:S30" si="159">N20+100</f>
+        <f t="shared" ref="N30" si="160">N20+100</f>
         <v>124</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:S30" si="160">O20+200</f>
+        <f t="shared" ref="O30" si="161">O20+200</f>
         <v>168</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:S30" si="161">P20+100</f>
+        <f t="shared" ref="P30" si="162">P20+100</f>
         <v>100</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:S30" si="162">Q20+200</f>
+        <f t="shared" ref="Q30" si="163">Q20+200</f>
         <v>264</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30:S30" si="163">R20+100</f>
+        <f t="shared" ref="R30" si="164">R20+100</f>
         <v>76</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30" si="164">S20+200</f>
+        <f t="shared" ref="S30" si="165">S20+200</f>
         <v>168</v>
       </c>
     </row>
@@ -3169,71 +3178,71 @@
         <v>179</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:D38" si="165">C21+200</f>
+        <f t="shared" ref="C31:D38" si="166">C21+200</f>
         <v>166</v>
       </c>
       <c r="D31">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>234</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:S31" si="166">E21+200</f>
+        <f t="shared" ref="E31:S31" si="167">E21+200</f>
         <v>179</v>
       </c>
       <c r="F31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>249</v>
       </c>
       <c r="G31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>197</v>
       </c>
       <c r="H31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>198</v>
       </c>
       <c r="I31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>216</v>
       </c>
       <c r="J31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>153</v>
       </c>
       <c r="K31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>187</v>
       </c>
       <c r="L31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>171</v>
       </c>
       <c r="M31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>173</v>
       </c>
       <c r="N31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>227</v>
       </c>
       <c r="O31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>171</v>
       </c>
       <c r="P31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>194</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>264</v>
       </c>
       <c r="R31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>179</v>
       </c>
       <c r="S31">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>166</v>
       </c>
     </row>
@@ -3246,75 +3255,75 @@
         <v>283</v>
       </c>
       <c r="C32">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>164</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:S32" si="167">D22+300</f>
+        <f t="shared" ref="D32" si="168">D22+300</f>
         <v>336</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:S32" si="168">E22+200</f>
+        <f t="shared" ref="E32" si="169">E22+200</f>
         <v>183</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:S32" si="169">F22+300</f>
+        <f t="shared" ref="F32" si="170">F22+300</f>
         <v>349</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:S32" si="170">G22+200</f>
+        <f t="shared" ref="G32" si="171">G22+200</f>
         <v>202</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:S32" si="171">H22+300</f>
+        <f t="shared" ref="H32" si="172">H22+300</f>
         <v>297</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:S32" si="172">I22+200</f>
+        <f t="shared" ref="I32" si="173">I22+200</f>
         <v>216</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:S32" si="173">J22+300</f>
+        <f t="shared" ref="J32" si="174">J22+300</f>
         <v>254</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:S32" si="174">K22+200</f>
+        <f t="shared" ref="K32" si="175">K22+200</f>
         <v>183</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:S32" si="175">L22+300</f>
+        <f t="shared" ref="L32" si="176">L22+300</f>
         <v>273</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:S32" si="176">M22+200</f>
+        <f t="shared" ref="M32" si="177">M22+200</f>
         <v>170</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:S32" si="177">N22+300</f>
+        <f t="shared" ref="N32" si="178">N22+300</f>
         <v>330</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:S32" si="178">O22+200</f>
+        <f t="shared" ref="O32" si="179">O22+200</f>
         <v>173</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:S32" si="179">P22+300</f>
+        <f t="shared" ref="P32" si="180">P22+300</f>
         <v>288</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:S32" si="180">Q22+200</f>
+        <f t="shared" ref="Q32" si="181">Q22+200</f>
         <v>263</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32:S32" si="181">R22+300</f>
+        <f t="shared" ref="R32" si="182">R22+300</f>
         <v>283</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32" si="182">S22+200</f>
+        <f t="shared" ref="S32" si="183">S22+200</f>
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3323,75 +3332,75 @@
         <v>386</v>
       </c>
       <c r="C33">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>162</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:S33" si="183">D23+400</f>
+        <f t="shared" ref="D33" si="184">D23+400</f>
         <v>438</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:S33" si="184">E23+200</f>
+        <f t="shared" ref="E33" si="185">E23+200</f>
         <v>186</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:S33" si="185">F23+400</f>
+        <f t="shared" ref="F33" si="186">F23+400</f>
         <v>448</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:S33" si="186">G23+200</f>
+        <f t="shared" ref="G33" si="187">G23+200</f>
         <v>206</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:S33" si="187">H23+400</f>
+        <f t="shared" ref="H33" si="188">H23+400</f>
         <v>395</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:S33" si="188">I23+200</f>
+        <f t="shared" ref="I33" si="189">I23+200</f>
         <v>215</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33:S33" si="189">J23+400</f>
+        <f t="shared" ref="J33" si="190">J23+400</f>
         <v>356</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:S33" si="190">K23+200</f>
+        <f t="shared" ref="K33" si="191">K23+200</f>
         <v>178</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:S33" si="191">L23+400</f>
+        <f t="shared" ref="L33" si="192">L23+400</f>
         <v>376</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33:S33" si="192">M23+200</f>
+        <f t="shared" ref="M33" si="193">M23+200</f>
         <v>168</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33:S33" si="193">N23+400</f>
+        <f t="shared" ref="N33" si="194">N23+400</f>
         <v>432</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:S33" si="194">O23+200</f>
+        <f t="shared" ref="O33" si="195">O23+200</f>
         <v>176</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33:S33" si="195">P23+400</f>
+        <f t="shared" ref="P33" si="196">P23+400</f>
         <v>381</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:S33" si="196">Q23+200</f>
+        <f t="shared" ref="Q33" si="197">Q23+200</f>
         <v>261</v>
       </c>
       <c r="R33">
-        <f t="shared" ref="R33:S33" si="197">R23+400</f>
+        <f t="shared" ref="R33" si="198">R23+400</f>
         <v>386</v>
       </c>
       <c r="S33">
-        <f t="shared" ref="S33" si="198">S23+200</f>
+        <f t="shared" ref="S33" si="199">S23+200</f>
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3400,75 +3409,75 @@
         <v>490</v>
       </c>
       <c r="C34">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>161</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:S34" si="199">D24+500</f>
+        <f t="shared" ref="D34" si="200">D24+500</f>
         <v>539</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:S34" si="200">E24+200</f>
+        <f t="shared" ref="E34" si="201">E24+200</f>
         <v>190</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:S34" si="201">F24+500</f>
+        <f t="shared" ref="F34" si="202">F24+500</f>
         <v>547</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:S34" si="202">G24+200</f>
+        <f t="shared" ref="G34" si="203">G24+200</f>
         <v>211</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:S34" si="203">H24+500</f>
+        <f t="shared" ref="H34" si="204">H24+500</f>
         <v>494</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:S34" si="204">I24+200</f>
+        <f t="shared" ref="I34" si="205">I24+200</f>
         <v>215</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:S34" si="205">J24+500</f>
+        <f t="shared" ref="J34" si="206">J24+500</f>
         <v>459</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:S34" si="206">K24+200</f>
+        <f t="shared" ref="K34" si="207">K24+200</f>
         <v>174</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:S34" si="207">L24+500</f>
+        <f t="shared" ref="L34" si="208">L24+500</f>
         <v>480</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:S34" si="208">M24+200</f>
+        <f t="shared" ref="M34" si="209">M24+200</f>
         <v>166</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:S34" si="209">N24+500</f>
+        <f t="shared" ref="N34" si="210">N24+500</f>
         <v>534</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:S34" si="210">O24+200</f>
+        <f t="shared" ref="O34" si="211">O24+200</f>
         <v>180</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:S34" si="211">P24+500</f>
+        <f t="shared" ref="P34" si="212">P24+500</f>
         <v>476</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:S34" si="212">Q24+200</f>
+        <f t="shared" ref="Q34" si="213">Q24+200</f>
         <v>259</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:S34" si="213">R24+500</f>
+        <f t="shared" ref="R34" si="214">R24+500</f>
         <v>490</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34" si="214">S24+200</f>
+        <f t="shared" ref="S34" si="215">S24+200</f>
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3477,75 +3486,75 @@
         <v>594</v>
       </c>
       <c r="C35">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>160</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:S35" si="215">D25+600</f>
+        <f t="shared" ref="D35" si="216">D25+600</f>
         <v>640</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:S35" si="216">E25+200</f>
+        <f t="shared" ref="E35" si="217">E25+200</f>
         <v>194</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:S35" si="217">F25+600</f>
+        <f t="shared" ref="F35" si="218">F25+600</f>
         <v>646</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:S35" si="218">G25+200</f>
+        <f t="shared" ref="G35" si="219">G25+200</f>
         <v>216</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:S35" si="219">H25+600</f>
+        <f t="shared" ref="H35" si="220">H25+600</f>
         <v>582</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:S35" si="220">I25+200</f>
+        <f t="shared" ref="I35" si="221">I25+200</f>
         <v>214</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:S35" si="221">J25+600</f>
+        <f t="shared" ref="J35" si="222">J25+600</f>
         <v>561</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:S35" si="222">K25+200</f>
+        <f t="shared" ref="K35" si="223">K25+200</f>
         <v>170</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:S35" si="223">L25+600</f>
+        <f t="shared" ref="L35" si="224">L25+600</f>
         <v>583</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:S35" si="224">M25+200</f>
+        <f t="shared" ref="M35" si="225">M25+200</f>
         <v>164</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:S35" si="225">N25+600</f>
+        <f t="shared" ref="N35" si="226">N25+600</f>
         <v>636</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:S35" si="226">O25+200</f>
+        <f t="shared" ref="O35" si="227">O25+200</f>
         <v>183</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:S35" si="227">P25+600</f>
+        <f t="shared" ref="P35" si="228">P25+600</f>
         <v>570</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:S35" si="228">Q25+200</f>
+        <f t="shared" ref="Q35" si="229">Q25+200</f>
         <v>256</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35:S35" si="229">R25+600</f>
+        <f t="shared" ref="R35" si="230">R25+600</f>
         <v>594</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35" si="230">S25+200</f>
+        <f t="shared" ref="S35" si="231">S25+200</f>
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3554,75 +3563,75 @@
         <v>698</v>
       </c>
       <c r="C36">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>160</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:S36" si="231">D26+700</f>
+        <f t="shared" ref="D36" si="232">D26+700</f>
         <v>740</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:S36" si="232">E26+200</f>
+        <f t="shared" ref="E36" si="233">E26+200</f>
         <v>198</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:S36" si="233">F26+700</f>
+        <f t="shared" ref="F36" si="234">F26+700</f>
         <v>744</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:S36" si="234">G26+200</f>
+        <f t="shared" ref="G36" si="235">G26+200</f>
         <v>220</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:S36" si="235">H26+700</f>
+        <f t="shared" ref="H36" si="236">H26+700</f>
         <v>691</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:S36" si="236">I26+200</f>
+        <f t="shared" ref="I36" si="237">I26+200</f>
         <v>213</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:S36" si="237">J26+700</f>
+        <f t="shared" ref="J36" si="238">J26+700</f>
         <v>665</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:S36" si="238">K26+200</f>
+        <f t="shared" ref="K36" si="239">K26+200</f>
         <v>167</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:S36" si="239">L26+700</f>
+        <f t="shared" ref="L36" si="240">L26+700</f>
         <v>687</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:S36" si="240">M26+200</f>
+        <f t="shared" ref="M36" si="241">M26+200</f>
         <v>162</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:S36" si="241">N26+700</f>
+        <f t="shared" ref="N36" si="242">N26+700</f>
         <v>738</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:S36" si="242">O26+200</f>
+        <f t="shared" ref="O36" si="243">O26+200</f>
         <v>187</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:S36" si="243">P26+700</f>
+        <f t="shared" ref="P36" si="244">P26+700</f>
         <v>664</v>
       </c>
       <c r="Q36">
-        <f t="shared" ref="Q36:S36" si="244">Q26+200</f>
+        <f t="shared" ref="Q36" si="245">Q26+200</f>
         <v>253</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36:S36" si="245">R26+700</f>
+        <f t="shared" ref="R36" si="246">R26+700</f>
         <v>698</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36" si="246">S26+200</f>
+        <f t="shared" ref="S36" si="247">S26+200</f>
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3631,75 +3640,75 @@
         <v>802</v>
       </c>
       <c r="C37">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>160</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:S37" si="247">D27+800</f>
+        <f t="shared" ref="D37" si="248">D27+800</f>
         <v>840</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:S37" si="248">E27+200</f>
+        <f t="shared" ref="E37" si="249">E27+200</f>
         <v>202</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:S37" si="249">F27+800</f>
+        <f t="shared" ref="F37" si="250">F27+800</f>
         <v>842</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:S37" si="250">G27+200</f>
+        <f t="shared" ref="G37" si="251">G27+200</f>
         <v>224</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:S37" si="251">H27+800</f>
+        <f t="shared" ref="H37" si="252">H27+800</f>
         <v>790</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:S37" si="252">I27+200</f>
+        <f t="shared" ref="I37" si="253">I27+200</f>
         <v>212</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:S37" si="253">J27+800</f>
+        <f t="shared" ref="J37" si="254">J27+800</f>
         <v>768</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37:S37" si="254">K27+200</f>
+        <f t="shared" ref="K37" si="255">K27+200</f>
         <v>163</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37:S37" si="255">L27+800</f>
+        <f t="shared" ref="L37" si="256">L27+800</f>
         <v>790</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:S37" si="256">M27+200</f>
+        <f t="shared" ref="M37" si="257">M27+200</f>
         <v>161</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:S37" si="257">N27+800</f>
+        <f t="shared" ref="N37" si="258">N27+800</f>
         <v>839</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:S37" si="258">O27+200</f>
+        <f t="shared" ref="O37" si="259">O27+200</f>
         <v>190</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:S37" si="259">P27+800</f>
+        <f t="shared" ref="P37" si="260">P27+800</f>
         <v>759</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:S37" si="260">Q27+200</f>
+        <f t="shared" ref="Q37" si="261">Q27+200</f>
         <v>249</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:S37" si="261">R27+800</f>
+        <f t="shared" ref="R37" si="262">R27+800</f>
         <v>802</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37" si="262">S27+200</f>
+        <f t="shared" ref="S37" si="263">S27+200</f>
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3708,72 +3717,473 @@
         <v>906</v>
       </c>
       <c r="C38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>160</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:S38" si="263">D28+900</f>
+        <f t="shared" ref="D38" si="264">D28+900</f>
         <v>940</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:S38" si="264">E28+200</f>
+        <f t="shared" ref="E38" si="265">E28+200</f>
         <v>206</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:S38" si="265">F28+900</f>
+        <f t="shared" ref="F38" si="266">F28+900</f>
         <v>940</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:S38" si="266">G28+200</f>
+        <f t="shared" ref="G38" si="267">G28+200</f>
         <v>228</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:S38" si="267">H28+900</f>
+        <f t="shared" ref="H38" si="268">H28+900</f>
         <v>889</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:S38" si="268">I28+200</f>
+        <f t="shared" ref="I38" si="269">I28+200</f>
         <v>211</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:S38" si="269">J28+900</f>
+        <f t="shared" ref="J38" si="270">J28+900</f>
         <v>872</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:S38" si="270">K28+200</f>
+        <f t="shared" ref="K38" si="271">K28+200</f>
         <v>160</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:S38" si="271">L28+900</f>
+        <f t="shared" ref="L38" si="272">L28+900</f>
         <v>894</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:S38" si="272">M28+200</f>
+        <f t="shared" ref="M38" si="273">M28+200</f>
         <v>160</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:S38" si="273">N28+900</f>
+        <f t="shared" ref="N38" si="274">N28+900</f>
         <v>940</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38:S38" si="274">O28+200</f>
+        <f t="shared" ref="O38" si="275">O28+200</f>
         <v>194</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:S38" si="275">P28+900</f>
+        <f t="shared" ref="P38" si="276">P28+900</f>
         <v>855</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:S38" si="276">Q28+200</f>
+        <f t="shared" ref="Q38" si="277">Q28+200</f>
         <v>245</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:S38" si="277">R28+900</f>
+        <f t="shared" ref="R38" si="278">R28+900</f>
         <v>906</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38" si="278">S28+200</f>
+        <f t="shared" ref="S38" si="279">S28+200</f>
         <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>-30</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>-30</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>-30</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>-30</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>-50</v>
+      </c>
+      <c r="N41">
+        <v>30</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>-30</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>-30</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-50</v>
+      </c>
+      <c r="N42">
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-15</v>
+      </c>
+      <c r="R42">
+        <v>-30</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>50</v>
+      </c>
+      <c r="V42">
+        <v>30</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>15</v>
+      </c>
+      <c r="Z42">
+        <v>-30</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>-50</v>
+      </c>
+      <c r="AD42">
+        <v>30</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <f>B40+100</f>
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <f>C40+400</f>
+        <v>400</v>
+      </c>
+      <c r="D44">
+        <f>D40+100</f>
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <f>E40+400</f>
+        <v>450</v>
+      </c>
+      <c r="F44">
+        <f>F40+100</f>
+        <v>130</v>
+      </c>
+      <c r="G44">
+        <f>G40+400</f>
+        <v>400</v>
+      </c>
+      <c r="H44">
+        <f>H40+100</f>
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <f>I40+400</f>
+        <v>415</v>
+      </c>
+      <c r="J44">
+        <f>J40+100</f>
+        <v>70</v>
+      </c>
+      <c r="K44">
+        <f>K40+400</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <f>B41+200</f>
+        <v>170</v>
+      </c>
+      <c r="C45">
+        <f>C41+400</f>
+        <v>400</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:S45" si="280">D41+200</f>
+        <v>200</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:S45" si="281">E41+400</f>
+        <v>450</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:S45" si="282">F41+200</f>
+        <v>230</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:S45" si="283">G41+400</f>
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:S45" si="284">H41+200</f>
+        <v>200</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:S45" si="285">I41+400</f>
+        <v>415</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:S45" si="286">J41+200</f>
+        <v>170</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:S45" si="287">K41+400</f>
+        <v>400</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45:S45" si="288">L41+200</f>
+        <v>200</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:S45" si="289">M41+400</f>
+        <v>350</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:S45" si="290">N41+200</f>
+        <v>230</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:S45" si="291">O41+400</f>
+        <v>400</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:S45" si="292">P41+200</f>
+        <v>200</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45:S45" si="293">Q41+400</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>B42+300</f>
+        <v>270</v>
+      </c>
+      <c r="C46">
+        <f>C42+400</f>
+        <v>400</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:Q46" si="294">D42+300</f>
+        <v>300</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:Q46" si="295">E42+400</f>
+        <v>450</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:Q46" si="296">F42+300</f>
+        <v>330</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:Q46" si="297">G42+400</f>
+        <v>400</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:Q46" si="298">H42+300</f>
+        <v>300</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:Q46" si="299">I42+400</f>
+        <v>415</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:Q46" si="300">J42+300</f>
+        <v>270</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:Q46" si="301">K42+400</f>
+        <v>400</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:Q46" si="302">L42+300</f>
+        <v>300</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:Q46" si="303">M42+400</f>
+        <v>350</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:Q46" si="304">N42+300</f>
+        <v>330</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="O46:Q46" si="305">O42+400</f>
+        <v>400</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ref="P46:X46" si="306">P42+300</f>
+        <v>300</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:Y46" si="307">Q42+400</f>
+        <v>385</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="306"/>
+        <v>270</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="307"/>
+        <v>400</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="306"/>
+        <v>300</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="307"/>
+        <v>450</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="306"/>
+        <v>330</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="307"/>
+        <v>400</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="306"/>
+        <v>300</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="307"/>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
